--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H2">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I2">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J2">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N2">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O2">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P2">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q2">
-        <v>13.430031019216</v>
+        <v>7.528720792133</v>
       </c>
       <c r="R2">
-        <v>120.870279172944</v>
+        <v>67.75848712919701</v>
       </c>
       <c r="S2">
-        <v>0.01008525034257724</v>
+        <v>0.009691153502445581</v>
       </c>
       <c r="T2">
-        <v>0.01246374993059609</v>
+        <v>0.01204709747722451</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H3">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I3">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J3">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P3">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q3">
-        <v>31.263296660644</v>
+        <v>17.10109879225433</v>
       </c>
       <c r="R3">
-        <v>281.369669945796</v>
+        <v>153.909889130289</v>
       </c>
       <c r="S3">
-        <v>0.02347709941292897</v>
+        <v>0.02201295253629267</v>
       </c>
       <c r="T3">
-        <v>0.02901392491400616</v>
+        <v>0.02736435708084827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H4">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I4">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J4">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N4">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O4">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P4">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q4">
-        <v>4.315659483888001</v>
+        <v>3.109209887561666</v>
       </c>
       <c r="R4">
-        <v>38.84093535499201</v>
+        <v>27.982888988055</v>
       </c>
       <c r="S4">
-        <v>0.003240834382739124</v>
+        <v>0.004002250996366791</v>
       </c>
       <c r="T4">
-        <v>0.004005150882810504</v>
+        <v>0.004975208355680505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H5">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I5">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J5">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N5">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O5">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P5">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q5">
-        <v>7.634903505546</v>
+        <v>2.514072543995</v>
       </c>
       <c r="R5">
-        <v>45.809421033276</v>
+        <v>15.08443526397</v>
       </c>
       <c r="S5">
-        <v>0.005733412907585895</v>
+        <v>0.003236175654913171</v>
       </c>
       <c r="T5">
-        <v>0.004723718453625825</v>
+        <v>0.00268193210493959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H6">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I6">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J6">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N6">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O6">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P6">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q6">
-        <v>3.609353275503999</v>
+        <v>2.028327345658</v>
       </c>
       <c r="R6">
-        <v>32.484179479536</v>
+        <v>18.254946110922</v>
       </c>
       <c r="S6">
-        <v>0.002710435389626075</v>
+        <v>0.00261091255775081</v>
       </c>
       <c r="T6">
-        <v>0.003349662898968187</v>
+        <v>0.00324563201684878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.35167</v>
       </c>
       <c r="I7">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J7">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N7">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O7">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P7">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q7">
-        <v>24.52454488776445</v>
+        <v>25.13366881565667</v>
       </c>
       <c r="R7">
-        <v>220.72090398988</v>
+        <v>226.20301934091</v>
       </c>
       <c r="S7">
-        <v>0.01841664955032367</v>
+        <v>0.03235267308978663</v>
       </c>
       <c r="T7">
-        <v>0.02276002149253551</v>
+        <v>0.04021768990276359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.35167</v>
       </c>
       <c r="I8">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J8">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P8">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q8">
         <v>57.08982512374111</v>
@@ -948,10 +948,10 @@
         <v>513.80842611367</v>
       </c>
       <c r="S8">
-        <v>0.04287147048008055</v>
+        <v>0.07348741890920896</v>
       </c>
       <c r="T8">
-        <v>0.05298225319849702</v>
+        <v>0.09135239667037183</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.35167</v>
       </c>
       <c r="I9">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J9">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N9">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O9">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P9">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q9">
-        <v>7.880814614760002</v>
+        <v>10.37969845740555</v>
       </c>
       <c r="R9">
-        <v>70.92733153284</v>
+        <v>93.41728611664999</v>
       </c>
       <c r="S9">
-        <v>0.005918079279159833</v>
+        <v>0.01336100166776351</v>
       </c>
       <c r="T9">
-        <v>0.007313795661917214</v>
+        <v>0.01660909503128677</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.35167</v>
       </c>
       <c r="I10">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J10">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N10">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O10">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P10">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q10">
-        <v>13.94207753262833</v>
+        <v>8.392908761516667</v>
       </c>
       <c r="R10">
-        <v>83.65246519577001</v>
+        <v>50.3574525691</v>
       </c>
       <c r="S10">
-        <v>0.01046977047268106</v>
+        <v>0.01080355738851015</v>
       </c>
       <c r="T10">
-        <v>0.00862597004335665</v>
+        <v>0.008953286377954684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.35167</v>
       </c>
       <c r="I11">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J11">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N11">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O11">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P11">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q11">
-        <v>6.591030675524443</v>
+        <v>6.771310713073333</v>
       </c>
       <c r="R11">
-        <v>59.31927607971999</v>
+        <v>60.94179641765999</v>
       </c>
       <c r="S11">
-        <v>0.004949519050489164</v>
+        <v>0.008716196727831669</v>
       </c>
       <c r="T11">
-        <v>0.00611681075100153</v>
+        <v>0.01083512624006577</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H12">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I12">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J12">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N12">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O12">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P12">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q12">
-        <v>6.246395250697778</v>
+        <v>20.813582988783</v>
       </c>
       <c r="R12">
-        <v>56.21755725627999</v>
+        <v>187.322246899047</v>
       </c>
       <c r="S12">
-        <v>0.004690715885304793</v>
+        <v>0.02679175297494852</v>
       </c>
       <c r="T12">
-        <v>0.00579697159753135</v>
+        <v>0.03330489601609084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H13">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I13">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J13">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>380.128601</v>
       </c>
       <c r="O13">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P13">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q13">
-        <v>14.54076371847444</v>
+        <v>47.276974234971</v>
       </c>
       <c r="R13">
-        <v>130.86687346627</v>
+        <v>425.492768114739</v>
       </c>
       <c r="S13">
-        <v>0.01091935246190071</v>
+        <v>0.06085607729284148</v>
       </c>
       <c r="T13">
-        <v>0.01349456620968622</v>
+        <v>0.07565034389800568</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H14">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I14">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J14">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N14">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O14">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P14">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q14">
-        <v>2.00724144756</v>
+        <v>8.595590115644999</v>
       </c>
       <c r="R14">
-        <v>18.06517302804</v>
+        <v>77.36031104080499</v>
       </c>
       <c r="S14">
-        <v>0.001507333264359167</v>
+        <v>0.01106445378368443</v>
       </c>
       <c r="T14">
-        <v>0.001862821866674735</v>
+        <v>0.01375425053691026</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H15">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I15">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J15">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N15">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O15">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P15">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q15">
-        <v>3.551043547728333</v>
+        <v>6.950298593744999</v>
       </c>
       <c r="R15">
-        <v>21.30626128637</v>
+        <v>41.70179156246999</v>
       </c>
       <c r="S15">
-        <v>0.002666647836106377</v>
+        <v>0.008946594304599169</v>
       </c>
       <c r="T15">
-        <v>0.002197032342825093</v>
+        <v>0.00741435603439702</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H16">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I16">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J16">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N16">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O16">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P16">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q16">
-        <v>1.678733811257777</v>
+        <v>5.607427968558</v>
       </c>
       <c r="R16">
-        <v>15.10860430132</v>
+        <v>50.466851717022</v>
       </c>
       <c r="S16">
-        <v>0.001260641224198143</v>
+        <v>0.007218018398820994</v>
       </c>
       <c r="T16">
-        <v>0.001557950118924957</v>
+        <v>0.008972736962741631</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H17">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I17">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J17">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N17">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O17">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P17">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q17">
-        <v>138.151703565582</v>
+        <v>94.642775192146</v>
       </c>
       <c r="R17">
-        <v>828.910221393492</v>
+        <v>567.856651152876</v>
       </c>
       <c r="S17">
-        <v>0.1037446982601051</v>
+        <v>0.121826494514572</v>
       </c>
       <c r="T17">
-        <v>0.08547452512772985</v>
+        <v>0.100961882700908</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H18">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I18">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J18">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>380.128601</v>
       </c>
       <c r="O18">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P18">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q18">
-        <v>321.5984897253255</v>
+        <v>214.9761550760687</v>
       </c>
       <c r="R18">
-        <v>1929.590938351953</v>
+        <v>1289.856930456412</v>
       </c>
       <c r="S18">
-        <v>0.241503632719383</v>
+        <v>0.2767225635973515</v>
       </c>
       <c r="T18">
-        <v>0.1989731395387264</v>
+        <v>0.2293296800333408</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H19">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I19">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J19">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N19">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O19">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P19">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q19">
-        <v>44.39421687522601</v>
+        <v>39.08555789732333</v>
       </c>
       <c r="R19">
-        <v>266.365301251356</v>
+        <v>234.51334738394</v>
       </c>
       <c r="S19">
-        <v>0.03333773319724306</v>
+        <v>0.05031188587940306</v>
       </c>
       <c r="T19">
-        <v>0.02746672323172672</v>
+        <v>0.04169522188796276</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H20">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I20">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J20">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N20">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O20">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P20">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q20">
-        <v>78.53853236383576</v>
+        <v>31.60414752619</v>
       </c>
       <c r="R20">
-        <v>314.154129455343</v>
+        <v>126.41659010476</v>
       </c>
       <c r="S20">
-        <v>0.0589783269520793</v>
+        <v>0.04068163150774371</v>
       </c>
       <c r="T20">
-        <v>0.03239455171269244</v>
+        <v>0.02247619520823306</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H21">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I21">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J21">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N21">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O21">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P21">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q21">
-        <v>37.12860402685799</v>
+        <v>25.497894568196</v>
       </c>
       <c r="R21">
-        <v>222.771624161148</v>
+        <v>152.987367409176</v>
       </c>
       <c r="S21">
-        <v>0.02788163824383657</v>
+        <v>0.03282151338481933</v>
       </c>
       <c r="T21">
-        <v>0.0229714850844723</v>
+        <v>0.02720033764107072</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H22">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I22">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J22">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N22">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O22">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P22">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q22">
-        <v>114.4630565265911</v>
+        <v>33.062878602109</v>
       </c>
       <c r="R22">
-        <v>1030.16750873932</v>
+        <v>297.565907418981</v>
       </c>
       <c r="S22">
-        <v>0.08595576424175903</v>
+        <v>0.04255934581882436</v>
       </c>
       <c r="T22">
-        <v>0.1062275217978163</v>
+        <v>0.05290563063694115</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H23">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I23">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J23">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>380.128601</v>
       </c>
       <c r="O23">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P23">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q23">
-        <v>266.4545217918478</v>
+        <v>75.10061389469966</v>
       </c>
       <c r="R23">
-        <v>2398.090696126631</v>
+        <v>675.905525052297</v>
       </c>
       <c r="S23">
-        <v>0.2000933991393984</v>
+        <v>0.0966713466306182</v>
       </c>
       <c r="T23">
-        <v>0.2472833102722073</v>
+        <v>0.1201723959712046</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H24">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I24">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J24">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N24">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O24">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P24">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q24">
-        <v>36.78201299364002</v>
+        <v>13.65430222466833</v>
       </c>
       <c r="R24">
-        <v>331.0381169427601</v>
+        <v>122.888720022015</v>
       </c>
       <c r="S24">
-        <v>0.02762136651911051</v>
+        <v>0.01757615171043619</v>
       </c>
       <c r="T24">
-        <v>0.03413557356946652</v>
+        <v>0.02184895873093722</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H25">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I25">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J25">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N25">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O25">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P25">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q25">
-        <v>65.07165845558835</v>
+        <v>11.040716957635</v>
       </c>
       <c r="R25">
-        <v>390.4299507335301</v>
+        <v>66.24430174581001</v>
       </c>
       <c r="S25">
-        <v>0.04886540952826496</v>
+        <v>0.01421188084505665</v>
       </c>
       <c r="T25">
-        <v>0.04025986623556125</v>
+        <v>0.01177788339519416</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H26">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I26">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J26">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N26">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O26">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P26">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q26">
-        <v>30.76222291723111</v>
+        <v>8.907534579434</v>
       </c>
       <c r="R26">
-        <v>276.86000625508</v>
+        <v>80.167811214906</v>
       </c>
       <c r="S26">
-        <v>0.02310081925875951</v>
+        <v>0.01146599632541028</v>
       </c>
       <c r="T26">
-        <v>0.02854890306664408</v>
+        <v>0.01425340908807788</v>
       </c>
     </row>
   </sheetData>
